--- a/PeopleHub_TestData.xlsx
+++ b/PeopleHub_TestData.xlsx
@@ -33,9 +33,6 @@
     <t>Latwal</t>
   </si>
   <si>
-    <t>/PublishingImages/immerse.jpg</t>
-  </si>
-  <si>
     <t>ExpectedSrc</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>PageUrl</t>
   </si>
   <si>
-    <t>https://www.mindtree.com/services/digital/augmented-reality-virtual-reality-services</t>
-  </si>
-  <si>
     <t>Locale</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>TC_005</t>
+  </si>
+  <si>
+    <t>/PublishingImages/RRRun-PH-Tile.jpg</t>
+  </si>
+  <si>
+    <t>https://www.townscript.com/e/mtr5mm</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,13 +416,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -432,36 +432,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -469,16 +469,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
